--- a/xlsx/a69_f04UPPachuca.xlsx
+++ b/xlsx/a69_f04UPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\1VoBo Upp 1er trim\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Entrega SIPOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
   <si>
     <t>44207</t>
   </si>
@@ -158,21 +158,45 @@
     <t>Secretaría Académica (UPP)</t>
   </si>
   <si>
+    <t>Estudiante</t>
+  </si>
+  <si>
+    <t>Porcentaje de beneficiarios con servicios de extensión y vinculación otorgados</t>
+  </si>
+  <si>
+    <t>Beneficiario</t>
+  </si>
+  <si>
+    <t>Proyecto</t>
+  </si>
+  <si>
+    <t>Porcentaje de instrumentos de planeación y evaluación estratégica implementados</t>
+  </si>
+  <si>
+    <t>Instrumento</t>
+  </si>
+  <si>
+    <t>Acción</t>
+  </si>
+  <si>
+    <t>Porcentaje de estudiantes formados en Educación Superior</t>
+  </si>
+  <si>
+    <t>Porcentaje de proyectos de investigación científica, tecnológica y educativa realizados</t>
+  </si>
+  <si>
+    <t>Porcentaje de acciones del programa de  gestión administrativa ejecutado</t>
+  </si>
+  <si>
+    <t>Porcentaje de estudiantescon útiles escolares entregados</t>
+  </si>
+  <si>
     <t>Dirección de Planeación (UPP)</t>
   </si>
   <si>
     <t>1. Estudiantes de educación superior en las instituciones públicas formados: Contribuir a la mejora de la calidad educativa en los programas educativos a nivel licenciatura y posgrado, que se ofertan en la Universidad Politécnica de Pachuca, para el desarrollo de conocimientos, destrezas y actitudes que permiten al sujeto que las posee, desarrollar actividades en su área profesional así como transferir, sus conocimientos, habilidades y actitudes a áreas profesionales próximas.</t>
   </si>
   <si>
-    <t>Porcentaje a la atención a la demanda de Educación Superior</t>
-  </si>
-  <si>
-    <t>Estudiante</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/0B1hmxg8QtxfYVDU2RmJHOE9USlU/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Dirección de Comunicación Social (UPP)</t>
   </si>
   <si>
@@ -182,42 +206,28 @@
     <t>Secretaría Administrativa(UPP)</t>
   </si>
   <si>
+    <t>Pertenece al gasto de operación de la Universidad</t>
+  </si>
+  <si>
+    <t>Pertenece al gasto de inversión de la Universidad</t>
+  </si>
+  <si>
+    <t>http://planestataldedesarrollo.hidalgo.gob.mx/pdf/PED/PED/Ped_Completo.pdf</t>
+  </si>
+  <si>
     <t>2. Servicios de extensión y vinculación de Educación Superior otorgados: Consolidar los servicios de difusión, orientación, vinculación y extensión con los sectores productivo, gubernamental, social, público y privado con la finalidad de generar calidad y prestigio del servicio educativo que ofrece la Universidad Politécnica de Pachuca consolidándonos como una de las mejores propuestas de educación superior para las y los alumnos de Instituciones de Educación Media Superior del estado y del país.</t>
   </si>
   <si>
-    <t>Porcentaje de beneficiarios con servicios de extensión y vinculación otorgados</t>
-  </si>
-  <si>
-    <t>Beneficiario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Investigación científica, tecnológica y educativa realizada: 
-Impulsar la producción académica de las investigaciones científicas y tecnológicas de educación superior, así como fomentar el desarrollo de proyectos de investigación educativa en educación superior.
-</t>
-  </si>
-  <si>
-    <t>Porcentaje de proyectos concluidos de investigación o transferencia tecnológica</t>
-  </si>
-  <si>
-    <t>Proyecto</t>
+    <t>3. Investigación científica, tecnológica y educativa realizada: Impulsar la producción académica de las investigaciones científicas y tecnológicas de educación superior, así como fomentar el desarrollo de proyectos de investigación educativa en educación superior.</t>
   </si>
   <si>
     <t>4. Instrumentos de planeación y evaluación estratégica implementados: Hacer eficientes los procesos de planeación estratégica, evaluación y sistematización, para el logro de los objetivos institucionales; así como la acreditación y reconocimiento de programas, la certificación del proceso educativo, que coadyuven a la adecuada toma de decisiones, establecidos en la Universidad Politécnica de Pachuca.</t>
   </si>
   <si>
-    <t>Porcentaje de instrumentos de planeación y evaluación estratégica implementados</t>
-  </si>
-  <si>
-    <t>Instrumento</t>
-  </si>
-  <si>
-    <t>5. Programa de gestión administrativa de las Instituciones de Educación Superior ejecutado: Cumplir con las metas programadas del componente Programa de gestión administrativa de las Instituciones de Educación Superior ejecutado. En razón del ejercicio, en paralelo con la disposición de recursos económicos, e implementar los mecanismos necesarios de racionalidad, economía y optimización para lograr cubrir en su totalidad los requerimientos que nos genera la matrícula escolar actual y dar fiel cumplimiento a los objetivos de la Universidad Politécnica de Pachuca.</t>
-  </si>
-  <si>
-    <t>Porcentaje  del programa de  gestión administrativa ejecutado</t>
-  </si>
-  <si>
-    <t>Acción</t>
+    <t>5. Programa de gestión administrativa de las Instituciones de Educación Superior ejecutado: Cumplir con los objetivos y metas programadas del componente 5, Programa de gestión administrativa de las Instituciones de Educación Superior ejecutado. En razón del ejercicio, en paralelo con la disposición de recursos económicos, e implementar los mecanismos necesarios de racionalidad económica y disciplina financiera para lograr cubrir en su totalidad los requerimientos que nos genera la matrícula escolar actual y dar fiel cumplimiento a los objetivos de la Universidad Politécnica de Pachuca.</t>
+  </si>
+  <si>
+    <t>6. Útiles escolares a estudiantes de la Universidad Politécnica de Pachuca, entregados: Proporcionar a los estudiantes de la UPP útiles escolares que permiten reforzar el proceso de enseñanza-aprendizaje de acuerdo al Modelo Educativo Basado en Competencias, garantizando su permanencia y eficiencia terminal con la dotación oportuna de los mismos.</t>
   </si>
 </sst>
 </file>
@@ -237,13 +247,11 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -308,26 +316,24 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -621,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H3" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,14 +638,14 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.42578125" customWidth="1"/>
     <col min="6" max="6" width="46" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="84.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -664,7 +670,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
@@ -691,7 +697,7 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
@@ -726,7 +732,7 @@
       <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="s">
@@ -801,170 +807,215 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>2020</v>
-      </c>
-      <c r="B8" s="5">
-        <v>43831</v>
-      </c>
-      <c r="C8" s="5">
-        <v>44196</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44561</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="4">
         <v>1</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="8" t="s">
+      <c r="G8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="5">
-        <v>43961</v>
-      </c>
-      <c r="J8" s="5">
-        <v>43961</v>
-      </c>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>2020</v>
-      </c>
-      <c r="B9" s="5">
-        <v>43831</v>
-      </c>
-      <c r="C9" s="5">
-        <v>44196</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="I8" s="3">
+        <v>44298</v>
+      </c>
+      <c r="J8" s="3">
+        <v>44298</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44561</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="4">
         <v>2</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="5">
-        <v>43961</v>
-      </c>
-      <c r="J9" s="5">
-        <v>43961</v>
-      </c>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>2020</v>
-      </c>
-      <c r="B10" s="5">
-        <v>43831</v>
-      </c>
-      <c r="C10" s="5">
-        <v>44196</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="G9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="3">
+        <v>44298</v>
+      </c>
+      <c r="J9" s="3">
+        <v>44298</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44561</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="6">
+      <c r="E10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="4">
         <v>3</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="5">
-        <v>43961</v>
-      </c>
-      <c r="J10" s="5">
-        <v>43961</v>
-      </c>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>2020</v>
-      </c>
-      <c r="B11" s="5">
-        <v>43831</v>
-      </c>
-      <c r="C11" s="5">
-        <v>44196</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="G10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="6">
+      <c r="I10" s="3">
+        <v>44298</v>
+      </c>
+      <c r="J10" s="3">
+        <v>44298</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44561</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="4">
         <v>4</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="5">
-        <v>43961</v>
-      </c>
-      <c r="J11" s="5">
-        <v>43961</v>
-      </c>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" ht="195" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>2020</v>
-      </c>
-      <c r="B12" s="5">
-        <v>43831</v>
-      </c>
-      <c r="C12" s="5">
-        <v>44196</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="G11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="3">
+        <v>44298</v>
+      </c>
+      <c r="J11" s="3">
+        <v>44298</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="5" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44561</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="4">
+        <v>5</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="3">
+        <v>44298</v>
+      </c>
+      <c r="J12" s="3">
+        <v>44298</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44561</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="4">
+        <v>6</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="3">
+        <v>44298</v>
+      </c>
+      <c r="J13" s="3">
+        <v>44298</v>
+      </c>
+      <c r="K13" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="6">
-        <v>5</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="5">
-        <v>43961</v>
-      </c>
-      <c r="J12" s="5">
-        <v>43961</v>
-      </c>
-      <c r="K12" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -978,25 +1029,29 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G8" r:id="rId1"/>
-    <hyperlink ref="G9:G12" r:id="rId2" display="https://drive.google.com/file/d/0B1hmxg8QtxfYVDU2RmJHOE9USlU/view?usp=sharing"/>
+    <hyperlink ref="G9" r:id="rId2"/>
+    <hyperlink ref="G10" r:id="rId3"/>
+    <hyperlink ref="G11" r:id="rId4"/>
+    <hyperlink ref="G12" r:id="rId5"/>
+    <hyperlink ref="G13" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A10" sqref="A10:XFD107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.42578125" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
   </cols>
@@ -1037,74 +1092,88 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="4" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5320</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5281</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="9">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>2</v>
-      </c>
-      <c r="B5" s="8" t="s">
+    <row r="7" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="4">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="9">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C8" s="4">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="9">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>4</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="9">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>5</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="9">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>64</v>
+      <c r="C9" s="4">
+        <v>5320</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/a69_f04UPPachuca.xlsx
+++ b/xlsx/a69_f04UPPachuca.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Entrega SIPOT\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="10590"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
     <sheet name="Tabla_349773" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -155,48 +150,48 @@
     <t>Unidad de medida</t>
   </si>
   <si>
+    <t>Porcentaje de estudiantes formados en Educación Superior</t>
+  </si>
+  <si>
+    <t>Porcentaje de beneficiarios con servicios de extensión y vinculación otorgados</t>
+  </si>
+  <si>
+    <t>Porcentaje de proyectos de investigación científica, tecnológica y educativa realizados</t>
+  </si>
+  <si>
+    <t>Porcentaje de instrumentos de planeación y evaluación estratégica implementados</t>
+  </si>
+  <si>
+    <t>Porcentaje de acciones del programa de  gestión administrativa ejecutado</t>
+  </si>
+  <si>
+    <t>Porcentaje de estudiantes con útiles escolares entregados</t>
+  </si>
+  <si>
+    <t>Estudiante</t>
+  </si>
+  <si>
+    <t>Beneficiario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proyecto </t>
+  </si>
+  <si>
+    <t>Instrumento</t>
+  </si>
+  <si>
+    <t>Acción</t>
+  </si>
+  <si>
+    <t>Dirección de Planeación (UPP)</t>
+  </si>
+  <si>
+    <t>http://planestataldedesarrollo.hidalgo.gob.mx/pdf/Institucionales/18_UPP/PID_UPP.pdf</t>
+  </si>
+  <si>
     <t>Secretaría Académica (UPP)</t>
   </si>
   <si>
-    <t>Estudiante</t>
-  </si>
-  <si>
-    <t>Porcentaje de beneficiarios con servicios de extensión y vinculación otorgados</t>
-  </si>
-  <si>
-    <t>Beneficiario</t>
-  </si>
-  <si>
-    <t>Proyecto</t>
-  </si>
-  <si>
-    <t>Porcentaje de instrumentos de planeación y evaluación estratégica implementados</t>
-  </si>
-  <si>
-    <t>Instrumento</t>
-  </si>
-  <si>
-    <t>Acción</t>
-  </si>
-  <si>
-    <t>Porcentaje de estudiantes formados en Educación Superior</t>
-  </si>
-  <si>
-    <t>Porcentaje de proyectos de investigación científica, tecnológica y educativa realizados</t>
-  </si>
-  <si>
-    <t>Porcentaje de acciones del programa de  gestión administrativa ejecutado</t>
-  </si>
-  <si>
-    <t>Porcentaje de estudiantescon útiles escolares entregados</t>
-  </si>
-  <si>
-    <t>Dirección de Planeación (UPP)</t>
-  </si>
-  <si>
-    <t>1. Estudiantes de educación superior en las instituciones públicas formados: Contribuir a la mejora de la calidad educativa en los programas educativos a nivel licenciatura y posgrado, que se ofertan en la Universidad Politécnica de Pachuca, para el desarrollo de conocimientos, destrezas y actitudes que permiten al sujeto que las posee, desarrollar actividades en su área profesional así como transferir, sus conocimientos, habilidades y actitudes a áreas profesionales próximas.</t>
-  </si>
-  <si>
     <t>Dirección de Comunicación Social (UPP)</t>
   </si>
   <si>
@@ -212,10 +207,10 @@
     <t>Pertenece al gasto de inversión de la Universidad</t>
   </si>
   <si>
-    <t>http://planestataldedesarrollo.hidalgo.gob.mx/pdf/PED/PED/Ped_Completo.pdf</t>
-  </si>
-  <si>
-    <t>2. Servicios de extensión y vinculación de Educación Superior otorgados: Consolidar los servicios de difusión, orientación, vinculación y extensión con los sectores productivo, gubernamental, social, público y privado con la finalidad de generar calidad y prestigio del servicio educativo que ofrece la Universidad Politécnica de Pachuca consolidándonos como una de las mejores propuestas de educación superior para las y los alumnos de Instituciones de Educación Media Superior del estado y del país.</t>
+    <t>1. Estudiantes de educación superior en las instituciones públicas formados: Contribuir a la mejora de la calidad educativa en los programas educativos a nivel licenciatura y posgrado, que se ofertan en la Universidad Politécnica de Pachuca, para el desarrollo de conocimientos, destrezas y actitudes que permiten al sujeto que las posee, desarrollar actividades en su área profesional, así como transferir, sus conocimientos, habilidades y actitudes a áreas profesionales próximas.</t>
+  </si>
+  <si>
+    <t>2. Servicios de extensión y vinculación de Educación Superior otorgados: El componente de Servicios de extensión y vinculación de Educación Superior otorgados es medular en el desarrollo empresarial, gubernamental y social para la Universidad Politécnica de Pachuca (UPP), ya que través de la vinculación con estos sectores el beneficio es bilateral, así mismo tiene un impacto en la sociedad a través de los servicios de extensión que se ofrecen. Dichas actividades de vinculación, extensión, orientación y difusión generan un prestigio y posicionamiento de nuestra institución en la Región, Estado y País.</t>
   </si>
   <si>
     <t>3. Investigación científica, tecnológica y educativa realizada: Impulsar la producción académica de las investigaciones científicas y tecnológicas de educación superior, así como fomentar el desarrollo de proyectos de investigación educativa en educación superior.</t>
@@ -227,7 +222,7 @@
     <t>5. Programa de gestión administrativa de las Instituciones de Educación Superior ejecutado: Cumplir con los objetivos y metas programadas del componente 5, Programa de gestión administrativa de las Instituciones de Educación Superior ejecutado. En razón del ejercicio, en paralelo con la disposición de recursos económicos, e implementar los mecanismos necesarios de racionalidad económica y disciplina financiera para lograr cubrir en su totalidad los requerimientos que nos genera la matrícula escolar actual y dar fiel cumplimiento a los objetivos de la Universidad Politécnica de Pachuca.</t>
   </si>
   <si>
-    <t>6. Útiles escolares a estudiantes de la Universidad Politécnica de Pachuca, entregados: Proporcionar a los estudiantes de la UPP útiles escolares que permiten reforzar el proceso de enseñanza-aprendizaje de acuerdo al Modelo Educativo Basado en Competencias, garantizando su permanencia y eficiencia terminal con la dotación oportuna de los mismos.</t>
+    <t>6. Útiles escolares a estudiantes de la Universidad Politécnica de Pachuca, entregados: Proporcionar a los estudiantes de la UPP útiles escolares que permiten reforzar el proceso de enseñanza-aprendizaje de acuerdo con el Modelo Educativo Basado en Competencias, garantizando su permanencia y eficiencia terminal con la dotación oportuna de los mismos.</t>
   </si>
 </sst>
 </file>
@@ -247,11 +242,13 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -280,7 +277,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -303,12 +300,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -316,15 +322,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -340,7 +343,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -619,7 +622,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -629,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,14 +641,14 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="89.7109375" customWidth="1"/>
     <col min="6" max="6" width="46" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="84.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -654,38 +657,38 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="10" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="13" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -697,7 +700,7 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
@@ -732,7 +735,7 @@
       <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="s">
@@ -758,19 +761,19 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -807,213 +810,213 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>2021</v>
-      </c>
-      <c r="B8" s="3">
-        <v>44197</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>57</v>
+        <v>2022</v>
+      </c>
+      <c r="B8" s="5">
+        <v>44562</v>
+      </c>
+      <c r="C8" s="5">
+        <v>44926</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="3">
-        <v>44298</v>
-      </c>
-      <c r="J8" s="3">
-        <v>44298</v>
-      </c>
-      <c r="K8" s="9" t="s">
+      <c r="G8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="5">
+        <v>44659</v>
+      </c>
+      <c r="J8" s="5">
+        <v>44659</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>2021</v>
-      </c>
-      <c r="B9" s="3">
-        <v>44197</v>
-      </c>
-      <c r="C9" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="7" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="5">
+        <v>44562</v>
+      </c>
+      <c r="C9" s="5">
+        <v>44926</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>64</v>
       </c>
       <c r="F9" s="4">
         <v>2</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="G9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="3">
-        <v>44298</v>
-      </c>
-      <c r="J9" s="3">
-        <v>44298</v>
-      </c>
-      <c r="K9" s="9" t="s">
+      <c r="I9" s="5">
+        <v>44659</v>
+      </c>
+      <c r="J9" s="5">
+        <v>44659</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>2021</v>
-      </c>
-      <c r="B10" s="3">
-        <v>44197</v>
-      </c>
-      <c r="C10" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="7" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="5">
+        <v>44562</v>
+      </c>
+      <c r="C10" s="5">
+        <v>44926</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>65</v>
       </c>
       <c r="F10" s="4">
         <v>3</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="7" t="s">
+      <c r="G10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="3">
-        <v>44298</v>
-      </c>
-      <c r="J10" s="3">
-        <v>44298</v>
-      </c>
-      <c r="K10" s="9" t="s">
+      <c r="I10" s="5">
+        <v>44659</v>
+      </c>
+      <c r="J10" s="5">
+        <v>44659</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>2021</v>
-      </c>
-      <c r="B11" s="3">
-        <v>44197</v>
-      </c>
-      <c r="C11" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="7" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="5">
+        <v>44562</v>
+      </c>
+      <c r="C11" s="5">
+        <v>44926</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>66</v>
       </c>
       <c r="F11" s="4">
         <v>4</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>63</v>
+      <c r="G11" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="3">
-        <v>44298</v>
-      </c>
-      <c r="J11" s="3">
-        <v>44298</v>
-      </c>
-      <c r="K11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="5">
+        <v>44659</v>
+      </c>
+      <c r="J11" s="5">
+        <v>44659</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="5" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>2021</v>
-      </c>
-      <c r="B12" s="3">
-        <v>44197</v>
-      </c>
-      <c r="C12" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="7" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B12" s="5">
+        <v>44562</v>
+      </c>
+      <c r="C12" s="5">
+        <v>44926</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>67</v>
       </c>
       <c r="F12" s="4">
         <v>5</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="7" t="s">
+      <c r="G12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="3">
-        <v>44298</v>
-      </c>
-      <c r="J12" s="3">
-        <v>44298</v>
-      </c>
-      <c r="K12" s="9" t="s">
+      <c r="I12" s="5">
+        <v>44659</v>
+      </c>
+      <c r="J12" s="5">
+        <v>44659</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>2021</v>
-      </c>
-      <c r="B13" s="3">
-        <v>44197</v>
-      </c>
-      <c r="C13" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="7" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="5">
+        <v>44562</v>
+      </c>
+      <c r="C13" s="5">
+        <v>44926</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F13" s="4">
         <v>6</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="3">
-        <v>44298</v>
-      </c>
-      <c r="J13" s="3">
-        <v>44298</v>
-      </c>
-      <c r="K13" s="9" t="s">
+      <c r="G13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="5">
+        <v>44659</v>
+      </c>
+      <c r="J13" s="5">
+        <v>44659</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1029,14 +1032,9 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G8" r:id="rId1"/>
-    <hyperlink ref="G9" r:id="rId2"/>
-    <hyperlink ref="G10" r:id="rId3"/>
-    <hyperlink ref="G11" r:id="rId4"/>
-    <hyperlink ref="G12" r:id="rId5"/>
-    <hyperlink ref="G13" r:id="rId6"/>
+    <hyperlink ref="G9:G13" r:id="rId2" display="http://planestataldedesarrollo.hidalgo.gob.mx/pdf/Institucionales/18_UPP/PID_UPP.pdf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1045,13 +1043,13 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD107"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.42578125" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
   </cols>
@@ -1092,88 +1090,88 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>52</v>
+      <c r="B4" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="C4" s="4">
-        <v>5320</v>
+        <v>5038</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>46</v>
+      <c r="B5" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="C5" s="4">
-        <v>5281</v>
+        <v>3420</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>53</v>
+      <c r="B6" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="C6" s="4">
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>49</v>
+      <c r="B7" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="C7" s="4">
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>54</v>
+      <c r="B8" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="C8" s="4">
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>55</v>
+      <c r="B9" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C9" s="4">
-        <v>5320</v>
+        <v>9900</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/a69_f04UPPachuca.xlsx
+++ b/xlsx/a69_f04UPPachuca.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="10590"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
     <sheet name="Tabla_349773" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
   <si>
     <t>44207</t>
   </si>
@@ -150,86 +150,77 @@
     <t>Unidad de medida</t>
   </si>
   <si>
+    <t>Dirección de Planeación (UPP)</t>
+  </si>
+  <si>
     <t>Porcentaje de estudiantes formados en Educación Superior</t>
   </si>
   <si>
+    <t>Estudiante</t>
+  </si>
+  <si>
     <t>Porcentaje de beneficiarios con servicios de extensión y vinculación otorgados</t>
   </si>
   <si>
+    <t>Beneficiario</t>
+  </si>
+  <si>
     <t>Porcentaje de proyectos de investigación científica, tecnológica y educativa realizados</t>
   </si>
   <si>
+    <t>Proyecto </t>
+  </si>
+  <si>
     <t>Porcentaje de instrumentos de planeación y evaluación estratégica implementados</t>
   </si>
   <si>
-    <t>Porcentaje de acciones del programa de  gestión administrativa ejecutado</t>
+    <t>Instrumento</t>
+  </si>
+  <si>
+    <t>Porcentaje de acciones del programa de  gestión administrativa ejecutado</t>
+  </si>
+  <si>
+    <t>Acción</t>
   </si>
   <si>
     <t>Porcentaje de estudiantes con útiles escolares entregados</t>
   </si>
   <si>
-    <t>Estudiante</t>
-  </si>
-  <si>
-    <t>Beneficiario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proyecto </t>
-  </si>
-  <si>
-    <t>Instrumento</t>
-  </si>
-  <si>
-    <t>Acción</t>
-  </si>
-  <si>
-    <t>Dirección de Planeación (UPP)</t>
-  </si>
-  <si>
-    <t>http://planestataldedesarrollo.hidalgo.gob.mx/pdf/Institucionales/18_UPP/PID_UPP.pdf</t>
-  </si>
-  <si>
-    <t>Secretaría Académica (UPP)</t>
-  </si>
-  <si>
-    <t>Dirección de Comunicación Social (UPP)</t>
-  </si>
-  <si>
-    <t>Dirección de Innovación, Investigación y Posgrado (UPP)</t>
-  </si>
-  <si>
-    <t>Secretaría Administrativa(UPP)</t>
-  </si>
-  <si>
-    <t>Pertenece al gasto de operación de la Universidad</t>
-  </si>
-  <si>
-    <t>Pertenece al gasto de inversión de la Universidad</t>
-  </si>
-  <si>
-    <t>1. Estudiantes de educación superior en las instituciones públicas formados: Contribuir a la mejora de la calidad educativa en los programas educativos a nivel licenciatura y posgrado, que se ofertan en la Universidad Politécnica de Pachuca, para el desarrollo de conocimientos, destrezas y actitudes que permiten al sujeto que las posee, desarrollar actividades en su área profesional, así como transferir, sus conocimientos, habilidades y actitudes a áreas profesionales próximas.</t>
-  </si>
-  <si>
-    <t>2. Servicios de extensión y vinculación de Educación Superior otorgados: El componente de Servicios de extensión y vinculación de Educación Superior otorgados es medular en el desarrollo empresarial, gubernamental y social para la Universidad Politécnica de Pachuca (UPP), ya que través de la vinculación con estos sectores el beneficio es bilateral, así mismo tiene un impacto en la sociedad a través de los servicios de extensión que se ofrecen. Dichas actividades de vinculación, extensión, orientación y difusión generan un prestigio y posicionamiento de nuestra institución en la Región, Estado y País.</t>
-  </si>
-  <si>
-    <t>3. Investigación científica, tecnológica y educativa realizada: Impulsar la producción académica de las investigaciones científicas y tecnológicas de educación superior, así como fomentar el desarrollo de proyectos de investigación educativa en educación superior.</t>
-  </si>
-  <si>
-    <t>4. Instrumentos de planeación y evaluación estratégica implementados: Hacer eficientes los procesos de planeación estratégica, evaluación y sistematización, para el logro de los objetivos institucionales; así como la acreditación y reconocimiento de programas, la certificación del proceso educativo, que coadyuven a la adecuada toma de decisiones, establecidos en la Universidad Politécnica de Pachuca.</t>
-  </si>
-  <si>
-    <t>5. Programa de gestión administrativa de las Instituciones de Educación Superior ejecutado: Cumplir con los objetivos y metas programadas del componente 5, Programa de gestión administrativa de las Instituciones de Educación Superior ejecutado. En razón del ejercicio, en paralelo con la disposición de recursos económicos, e implementar los mecanismos necesarios de racionalidad económica y disciplina financiera para lograr cubrir en su totalidad los requerimientos que nos genera la matrícula escolar actual y dar fiel cumplimiento a los objetivos de la Universidad Politécnica de Pachuca.</t>
-  </si>
-  <si>
-    <t>6. Útiles escolares a estudiantes de la Universidad Politécnica de Pachuca, entregados: Proporcionar a los estudiantes de la UPP útiles escolares que permiten reforzar el proceso de enseñanza-aprendizaje de acuerdo con el Modelo Educativo Basado en Competencias, garantizando su permanencia y eficiencia terminal con la dotación oportuna de los mismos.</t>
+    <t>1. Estudiantes de educación superior en las instituciones públicas formados:
+Contribuir a la mejora de la calidad educativa en los programas educativos a nivel licenciatura y posgrado, que se ofertan en la Universidad Politécnica de Pachuca, para el desarrollo de conocimientos, destrezas y actitudes que permiten al sujeto que las posee, desarrollar actividades en su área profesional, así como transferir, sus conocimientos, habilidades y actitudes a áreas profesionales próximas.</t>
+  </si>
+  <si>
+    <t>2. Servicios de extensión y vinculación de Educación Superior otorgados:
+Consolidar los servicios de difusión, orientación, vinculación y extensión con los sectores productivo, gubernamental, social, público y privado con la finalidad de generar calidad y prestigio del servicio educativo que ofrece la Universidad Politécnica de Pachuca consolidándonos como una de las mejores propuestas de educación superior para las y los alumnos de Instituciones de Educación Media Superior del estado y del país.</t>
+  </si>
+  <si>
+    <t>3. Investigación científica, tecnológica y educativa realizada:
+Impulsar la producción académica de las investigaciones científicas y tecnológicas de educación superior, así como fomentar el desarrollo de proyectos de investigación educativa en educación superior.</t>
+  </si>
+  <si>
+    <t>4. Instrumentos de planeación y evaluación estratégica implementados:
+Hacer eficientes los procesos de planeación estratégica, evaluación y sistematización, para el logro de los objetivos institucionales; así como la acreditación y reconocimiento de programas, la certificación del proceso educativo, que coadyuven a la adecuada toma de decisiones, establecidos en la Universidad Politécnica de Pachuca.</t>
+  </si>
+  <si>
+    <t>5. Programa de gestión administrativa de las Instituciones de Educación Superior ejecutado:
+Cumplir con los objetivos y metas programadas del componente 5, Programa de gestión administrativa de las Instituciones de Educación Superior ejecutado. En razón del ejercicio, en paralelo con la disposición de recursos económicos, e implementar los mecanismos necesarios de racionalidad económica y disciplina financiera para lograr cubrir en su totalidad los requerimientos que nos genera la matrícula escolar actual y dar fiel cumplimiento a los objetivos de la Universidad Politécnica de Pachuca.</t>
+  </si>
+  <si>
+    <t>Departamento de Evaluación y Estadística (UPP)</t>
+  </si>
+  <si>
+    <t>6. Útiles escolares a estudiantes de la Universidad Politécnica de Pachuca, entregados: 
+Proporcionar a los estudiantes de la UPP útiles escolares que permiten reforzar el proceso de enseñanza-aprendizaje de acuerdo con el Modelo Educativo Basado en Competencias, garantizando su permanencia y eficiencia terminal con la dotación oportuna de los mismos.</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/03-programa-operativo-anual-autorizado/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -248,6 +239,19 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -277,7 +281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -301,20 +305,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -322,33 +341,32 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -378,39 +396,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -445,7 +463,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -489,151 +507,175 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,14 +683,14 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="89.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77.7109375" customWidth="1"/>
     <col min="6" max="6" width="46" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="84.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" customWidth="1"/>
+    <col min="11" max="11" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -657,38 +699,38 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -761,19 +803,19 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -811,214 +853,280 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B8" s="5">
-        <v>44562</v>
-      </c>
-      <c r="C8" s="5">
-        <v>44926</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="A8" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="6">
+        <v>44927</v>
+      </c>
+      <c r="C8" s="6">
+        <v>45291</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="6">
+        <v>45026</v>
+      </c>
+      <c r="J8" s="6">
+        <v>45026</v>
+      </c>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="6">
+        <v>44927</v>
+      </c>
+      <c r="C9" s="6">
+        <v>45291</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="5">
-        <v>44659</v>
-      </c>
-      <c r="J8" s="5">
-        <v>44659</v>
-      </c>
-      <c r="K8" s="8" t="s">
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B9" s="5">
-        <v>44562</v>
-      </c>
-      <c r="C9" s="5">
-        <v>44926</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="4">
-        <v>2</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6">
+        <v>45026</v>
+      </c>
+      <c r="J9" s="6">
+        <v>45026</v>
+      </c>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="6">
+        <v>44927</v>
+      </c>
+      <c r="C10" s="6">
+        <v>45291</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="5">
-        <v>44659</v>
-      </c>
-      <c r="J9" s="5">
-        <v>44659</v>
-      </c>
-      <c r="K9" s="8" t="s">
+      <c r="F10" s="3">
+        <v>3</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="5">
-        <v>44562</v>
-      </c>
-      <c r="C10" s="5">
-        <v>44926</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="4">
-        <v>3</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6">
+        <v>45026</v>
+      </c>
+      <c r="J10" s="6">
+        <v>45026</v>
+      </c>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="6">
+        <v>44927</v>
+      </c>
+      <c r="C11" s="6">
+        <v>45291</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="5">
-        <v>44659</v>
-      </c>
-      <c r="J10" s="5">
-        <v>44659</v>
-      </c>
-      <c r="K10" s="8" t="s">
+      <c r="F11" s="3">
+        <v>4</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B11" s="5">
-        <v>44562</v>
-      </c>
-      <c r="C11" s="5">
-        <v>44926</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="4">
-        <v>4</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="5">
-        <v>44659</v>
-      </c>
-      <c r="J11" s="5">
-        <v>44659</v>
-      </c>
-      <c r="K11" s="8" t="s">
+      <c r="I11" s="6">
+        <v>45026</v>
+      </c>
+      <c r="J11" s="6">
+        <v>45026</v>
+      </c>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="6">
+        <v>44927</v>
+      </c>
+      <c r="C12" s="6">
+        <v>45291</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B12" s="5">
-        <v>44562</v>
-      </c>
-      <c r="C12" s="5">
-        <v>44926</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="4">
-        <v>5</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="5">
-        <v>44659</v>
-      </c>
-      <c r="J12" s="5">
-        <v>44659</v>
-      </c>
-      <c r="K12" s="8" t="s">
+      <c r="I12" s="6">
+        <v>45026</v>
+      </c>
+      <c r="J12" s="6">
+        <v>45026</v>
+      </c>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B13" s="6">
+        <v>44927</v>
+      </c>
+      <c r="C13" s="6">
+        <v>45291</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="3">
+        <v>6</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B13" s="5">
-        <v>44562</v>
-      </c>
-      <c r="C13" s="5">
-        <v>44926</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="4">
-        <v>6</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13" s="5">
-        <v>44659</v>
-      </c>
-      <c r="J13" s="5">
-        <v>44659</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>62</v>
-      </c>
+      <c r="I13" s="6">
+        <v>45026</v>
+      </c>
+      <c r="J13" s="6">
+        <v>45026</v>
+      </c>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1032,9 +1140,10 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G8" r:id="rId1"/>
-    <hyperlink ref="G9:G13" r:id="rId2" display="http://planestataldedesarrollo.hidalgo.gob.mx/pdf/Institucionales/18_UPP/PID_UPP.pdf"/>
+    <hyperlink ref="G9:G13" r:id="rId2" display="https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/03-programa-operativo-anual-autorizado/2023"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1043,13 +1152,13 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F10" sqref="F9:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
   </cols>
@@ -1090,68 +1199,68 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>44</v>
+      <c r="B4" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C4" s="4">
-        <v>5038</v>
+        <v>5295</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>45</v>
+      <c r="B5" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C5" s="4">
-        <v>3420</v>
+        <v>3760</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>46</v>
+      <c r="B6" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C6" s="4">
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>47</v>
+      <c r="B7" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C7" s="4">
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="C8" s="4">
         <v>4</v>
@@ -1160,18 +1269,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>49</v>
+      <c r="B9" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C9" s="4">
         <v>9900</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/a69_f04UPPachuca.xlsx
+++ b/xlsx/a69_f04UPPachuca.xlsx
@@ -333,7 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -346,9 +346,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -672,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,38 +696,38 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="10" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -803,19 +800,19 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -856,10 +853,10 @@
       <c r="A8" s="3">
         <v>2023</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>44927</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>45291</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -871,28 +868,28 @@
       <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>45026</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>45026</v>
       </c>
-      <c r="K8" s="7"/>
+      <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2023</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>44927</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>45291</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -904,28 +901,28 @@
       <c r="F9" s="3">
         <v>2</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>45026</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>45026</v>
       </c>
-      <c r="K9" s="7"/>
+      <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2023</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>44927</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>45291</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -937,28 +934,28 @@
       <c r="F10" s="3">
         <v>3</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>45026</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>45026</v>
       </c>
-      <c r="K10" s="7"/>
+      <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2023</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>44927</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>45291</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -970,28 +967,28 @@
       <c r="F11" s="3">
         <v>4</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>45026</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>45026</v>
       </c>
-      <c r="K11" s="7"/>
+      <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2023</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>44927</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>45291</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1003,28 +1000,28 @@
       <c r="F12" s="3">
         <v>5</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>45026</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>45026</v>
       </c>
-      <c r="K12" s="7"/>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>2023</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>44927</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>45291</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1036,97 +1033,19 @@
       <c r="F13" s="3">
         <v>6</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>45026</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>45026</v>
       </c>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
+      <c r="K13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1152,7 +1071,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F10" sqref="F9:F10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,7 +1119,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1214,7 +1133,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1228,7 +1147,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1242,7 +1161,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1256,7 +1175,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1270,7 +1189,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">

--- a/xlsx/a69_f04UPPachuca.xlsx
+++ b/xlsx/a69_f04UPPachuca.xlsx
@@ -281,7 +281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -328,12 +328,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -364,6 +373,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -671,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,7 +727,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
@@ -723,11 +738,11 @@
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">

--- a/xlsx/a69_f04UPPachuca.xlsx
+++ b/xlsx/a69_f04UPPachuca.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2023\SIPOT\Vo. Bo. Uno 2do Tri 2023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E82329DC-AC3D-4C60-A331-5E325617DEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
   <si>
     <t>44207</t>
   </si>
@@ -107,7 +113,7 @@
     <t>Denominación del área</t>
   </si>
   <si>
-    <t>Descripción breve y clara de cada objetivo institucional</t>
+    <t>Descripción breve y clara de cada objetivo institucional (Redactados con perspectiva de género)</t>
   </si>
   <si>
     <t>Indicadores y metas asociados a cada objetivo 
@@ -150,48 +156,7 @@
     <t>Unidad de medida</t>
   </si>
   <si>
-    <t>Dirección de Planeación (UPP)</t>
-  </si>
-  <si>
-    <t>Porcentaje de estudiantes formados en Educación Superior</t>
-  </si>
-  <si>
-    <t>Estudiante</t>
-  </si>
-  <si>
-    <t>Porcentaje de beneficiarios con servicios de extensión y vinculación otorgados</t>
-  </si>
-  <si>
-    <t>Beneficiario</t>
-  </si>
-  <si>
-    <t>Porcentaje de proyectos de investigación científica, tecnológica y educativa realizados</t>
-  </si>
-  <si>
-    <t>Proyecto </t>
-  </si>
-  <si>
-    <t>Porcentaje de instrumentos de planeación y evaluación estratégica implementados</t>
-  </si>
-  <si>
-    <t>Instrumento</t>
-  </si>
-  <si>
-    <t>Porcentaje de acciones del programa de  gestión administrativa ejecutado</t>
-  </si>
-  <si>
-    <t>Acción</t>
-  </si>
-  <si>
-    <t>Porcentaje de estudiantes con útiles escolares entregados</t>
-  </si>
-  <si>
-    <t>1. Estudiantes de educación superior en las instituciones públicas formados:
-Contribuir a la mejora de la calidad educativa en los programas educativos a nivel licenciatura y posgrado, que se ofertan en la Universidad Politécnica de Pachuca, para el desarrollo de conocimientos, destrezas y actitudes que permiten al sujeto que las posee, desarrollar actividades en su área profesional, así como transferir, sus conocimientos, habilidades y actitudes a áreas profesionales próximas.</t>
-  </si>
-  <si>
-    <t>2. Servicios de extensión y vinculación de Educación Superior otorgados:
-Consolidar los servicios de difusión, orientación, vinculación y extensión con los sectores productivo, gubernamental, social, público y privado con la finalidad de generar calidad y prestigio del servicio educativo que ofrece la Universidad Politécnica de Pachuca consolidándonos como una de las mejores propuestas de educación superior para las y los alumnos de Instituciones de Educación Media Superior del estado y del país.</t>
+    <t>Departamento de Evaluación y Estadistica (UPP)</t>
   </si>
   <si>
     <t>3. Investigación científica, tecnológica y educativa realizada:
@@ -206,21 +171,71 @@
 Cumplir con los objetivos y metas programadas del componente 5, Programa de gestión administrativa de las Instituciones de Educación Superior ejecutado. En razón del ejercicio, en paralelo con la disposición de recursos económicos, e implementar los mecanismos necesarios de racionalidad económica y disciplina financiera para lograr cubrir en su totalidad los requerimientos que nos genera la matrícula escolar actual y dar fiel cumplimiento a los objetivos de la Universidad Politécnica de Pachuca.</t>
   </si>
   <si>
-    <t>Departamento de Evaluación y Estadística (UPP)</t>
+    <t>Dirección de Planeación (UPP)</t>
+  </si>
+  <si>
+    <t>Porcentaje de proyectos de investigación científica, tecnológica y educativa realizados</t>
+  </si>
+  <si>
+    <t>Proyecto </t>
+  </si>
+  <si>
+    <t>Porcentaje de instrumentos de planeación y evaluación estratégica implementados</t>
+  </si>
+  <si>
+    <t>Instrumento</t>
+  </si>
+  <si>
+    <t>Porcentaje de acciones del programa de  gestión administrativa ejecutado</t>
+  </si>
+  <si>
+    <t>Acción</t>
+  </si>
+  <si>
+    <t>Estudiantado</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/03-programa-operativo-anual-autorizado/2023</t>
+  </si>
+  <si>
+    <t>El Área responsable atiende al supuesto 2 del artículo octavo de los Lineamientos Técnicos Generales.
+El objetivo corresponde al gasto de operación de la Institución.</t>
+  </si>
+  <si>
+    <t>1. El estudiantado de educación superior en las instituciones públicas formados:
+Contribuir a la mejora de la calidad educativa en los programas educativos a nivel licenciatura y posgrado, que se ofertan en la Universidad Politécnica de Pachuca, para el desarrollo de conocimientos, destrezas y actitudes que permiten al sujeto que las posee, desarrollar actividades en su área profesional, así como transferir, sus conocimientos, habilidades y actitudes a áreas profesionales próximas.</t>
+  </si>
+  <si>
+    <t>2. Servicios de extensión y vinculación de Educación Superior otorgados:
+Consolidar los servicios de difusión, orientación, vinculación y extensión con los sectores productivo, gubernamental, social, público y privado con la finalidad de generar calidad y prestigio del servicio educativo que ofrece la Universidad Politécnica de Pachuca consolidándonos como una de las mejores propuestas de educación superior para la población estudiantil de Instituciones de Educación Media Superior del estado y del país.</t>
   </si>
   <si>
     <t>6. Útiles escolares a estudiantes de la Universidad Politécnica de Pachuca, entregados: 
-Proporcionar a los estudiantes de la UPP útiles escolares que permiten reforzar el proceso de enseñanza-aprendizaje de acuerdo con el Modelo Educativo Basado en Competencias, garantizando su permanencia y eficiencia terminal con la dotación oportuna de los mismos.</t>
-  </si>
-  <si>
-    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/03-programa-operativo-anual-autorizado/2023</t>
+Proporcionar al estudiantado de la UPP útiles escolares que permiten reforzar el proceso de enseñanza-aprendizaje de acuerdo con el Modelo Educativo Basado en Competencias, garantizando su permanencia y eficiencia terminal con la dotación oportuna de los mismos.</t>
+  </si>
+  <si>
+    <t>Porcentaje de estudiantado formados en Educación Superior</t>
+  </si>
+  <si>
+    <t>Porcentaje de estudiantado con útiles escolares entregados</t>
+  </si>
+  <si>
+    <t>Beneficiaria/o</t>
+  </si>
+  <si>
+    <t>Porcentaje de población beneficiada con servicios de extensión y vinculación otorgados</t>
+  </si>
+  <si>
+    <t>El Área responsable atiende al supuesto 2 del artículo octavo de los Lineamientos Técnicos Generales.
+El objetivo corresponde al gasto de inversión de la Institución.
+En atención a los oficios SEPH/SPYE/197/2023, SPYE/DGE/007/2023 y SH/SSP/UTED/232/2023 se cancela el proyecto para el ejercicio 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -246,13 +261,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -261,6 +269,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -281,7 +307,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -305,17 +331,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -329,20 +344,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -350,22 +367,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -373,12 +390,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -398,9 +409,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -438,7 +449,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -510,7 +521,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -683,11 +694,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,14 +706,14 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="77.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="81.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="46" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="84.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.140625" customWidth="1"/>
+    <col min="11" max="11" width="51.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -727,7 +738,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
@@ -738,11 +749,11 @@
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -865,202 +876,214 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="5">
         <v>2023</v>
       </c>
-      <c r="B8" s="5">
-        <v>44927</v>
-      </c>
-      <c r="C8" s="5">
-        <v>45291</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="6">
+        <v>45017</v>
+      </c>
+      <c r="C8" s="6">
+        <v>45107</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="I8" s="6">
+        <v>45117</v>
+      </c>
+      <c r="J8" s="6">
+        <v>45117</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="6">
+        <v>45017</v>
+      </c>
+      <c r="C9" s="6">
+        <v>45107</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" s="5">
-        <v>45026</v>
-      </c>
-      <c r="J8" s="5">
-        <v>45026</v>
-      </c>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="H9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="6">
+        <v>45117</v>
+      </c>
+      <c r="J9" s="6">
+        <v>45117</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>2023</v>
       </c>
-      <c r="B9" s="5">
-        <v>44927</v>
-      </c>
-      <c r="C9" s="5">
-        <v>45291</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="B10" s="6">
+        <v>45017</v>
+      </c>
+      <c r="C10" s="6">
+        <v>45107</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="5">
+        <v>3</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="I10" s="6">
+        <v>45117</v>
+      </c>
+      <c r="J10" s="6">
+        <v>45117</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="3">
-        <v>2</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="5">
-        <v>45026</v>
-      </c>
-      <c r="J9" s="5">
-        <v>45026</v>
-      </c>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    </row>
+    <row r="11" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>2023</v>
       </c>
-      <c r="B10" s="5">
-        <v>44927</v>
-      </c>
-      <c r="C10" s="5">
-        <v>45291</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="B11" s="6">
+        <v>45017</v>
+      </c>
+      <c r="C11" s="6">
+        <v>45107</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="5">
+        <v>4</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" s="5">
-        <v>45026</v>
-      </c>
-      <c r="J10" s="5">
-        <v>45026</v>
-      </c>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="I11" s="6">
+        <v>45117</v>
+      </c>
+      <c r="J11" s="6">
+        <v>45117</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>2023</v>
       </c>
-      <c r="B11" s="5">
-        <v>44927</v>
-      </c>
-      <c r="C11" s="5">
-        <v>45291</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="B12" s="6">
+        <v>45017</v>
+      </c>
+      <c r="C12" s="6">
+        <v>45107</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="5">
+        <v>5</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="3">
-        <v>4</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" s="5">
-        <v>45026</v>
-      </c>
-      <c r="J11" s="5">
-        <v>45026</v>
-      </c>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="I12" s="6">
+        <v>45117</v>
+      </c>
+      <c r="J12" s="6">
+        <v>45117</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>2023</v>
       </c>
-      <c r="B12" s="5">
-        <v>44927</v>
-      </c>
-      <c r="C12" s="5">
-        <v>45291</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="B13" s="6">
+        <v>45017</v>
+      </c>
+      <c r="C13" s="6">
+        <v>45107</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="5">
+        <v>6</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="3">
-        <v>5</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="5">
-        <v>45026</v>
-      </c>
-      <c r="J12" s="5">
-        <v>45026</v>
-      </c>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>2023</v>
-      </c>
-      <c r="B13" s="5">
-        <v>44927</v>
-      </c>
-      <c r="C13" s="5">
-        <v>45291</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="3">
-        <v>6</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" s="5">
-        <v>45026</v>
-      </c>
-      <c r="J13" s="5">
-        <v>45026</v>
-      </c>
-      <c r="K13" s="6"/>
+      <c r="I13" s="6">
+        <v>45117</v>
+      </c>
+      <c r="J13" s="6">
+        <v>45117</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1073,20 +1096,19 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G8" r:id="rId1"/>
-    <hyperlink ref="G9:G13" r:id="rId2" display="https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/03-programa-operativo-anual-autorizado/2023"/>
+    <hyperlink ref="G8:G13" r:id="rId1" display="https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/03-programa-operativo-anual-autorizado/2023" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,87 +1156,87 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="8">
         <v>5295</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>46</v>
+      <c r="D4" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="8">
         <v>3760</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>48</v>
+      <c r="D5" s="8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="8">
         <v>3</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="8">
         <v>8</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="8">
         <v>4</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="8">
+        <v>9900</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="C9" s="4">
-        <v>9900</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
